--- a/data/trans_camb/P7A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 12,15</t>
+          <t>-31,33; 26,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 12,57</t>
+          <t>-31,23; 26,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 11,45</t>
+          <t>-35,21; 24,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 11,31</t>
+          <t>-38,09; 32,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 16,15</t>
+          <t>-15,42; 21,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 19,25</t>
+          <t>-16,01; 22,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 7,69</t>
+          <t>-14,72; 24,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 11,21</t>
+          <t>-0,54; 34,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 13,03</t>
+          <t>-19,14; 18,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; 17,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; 17,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,86; 28,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-11,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 20,92</t>
+          <t>-53,61; 78,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 22,07</t>
+          <t>-54,51; 76,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 20,35</t>
+          <t>-59,72; 70,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 18,77</t>
+          <t>-60,17; 88,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 27,17</t>
+          <t>-23,52; 45,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 32,98</t>
+          <t>-23,82; 47,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 12,96</t>
+          <t>-22,26; 50,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 19,16</t>
+          <t>-0,82; 73,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 22,04</t>
+          <t>-30,98; 41,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 38,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,56; 39,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,89; 65,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 7,17</t>
+          <t>-11,2; 11,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 4,99</t>
+          <t>-13,19; 8,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 4,02</t>
+          <t>-15,49; 5,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 6,21</t>
+          <t>-5,89; 18,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 6,04</t>
+          <t>-8,36; 10,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 6,66</t>
+          <t>-9,23; 8,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,93</t>
+          <t>-8,9; 9,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 2,9</t>
+          <t>-1,08; 17,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 2,96</t>
+          <t>-7,85; 6,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 4,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 3,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 14,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 25,33</t>
+          <t>-29,97; 45,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 19,07</t>
+          <t>-35,73; 31,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 15,31</t>
+          <t>-41,94; 19,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,56; 23,1</t>
+          <t>-15,02; 69,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 23,24</t>
+          <t>-26,08; 46,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 25,49</t>
+          <t>-28,97; 36,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 13,82</t>
+          <t>-27,17; 41,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 9,92</t>
+          <t>-4,15; 76,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 11,06</t>
+          <t>-23,48; 26,37</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-26,62; 18,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-29,5; 14,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 53,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 9,64</t>
+          <t>-10,49; 10,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 9,31</t>
+          <t>-10,58; 10,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 8,1</t>
+          <t>-12,96; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 6,04</t>
+          <t>-4,14; 20,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 7,17</t>
+          <t>-10,57; 7,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 6,81</t>
+          <t>-10,37; 5,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,1</t>
+          <t>-10,94; 5,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 5,12</t>
+          <t>-6,06; 13,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 4,77</t>
+          <t>-7,29; 6,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 6,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 4,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 13,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-3,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,94%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 39,48</t>
+          <t>-35,16; 53,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 38,04</t>
+          <t>-34,53; 54,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 33,54</t>
+          <t>-43,75; 40,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 34,6</t>
+          <t>-12,87; 108,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 40,19</t>
+          <t>-40,91; 48,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 37,67</t>
+          <t>-41,31; 38,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 23,33</t>
+          <t>-44,24; 33,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 23,19</t>
+          <t>-22,97; 82,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 20,71</t>
+          <t>-28,06; 33,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; 34,24</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,14; 26,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 75,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 15,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 9,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 18,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 28,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 8,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 10,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; 6,78</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 5,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,67; 3,06</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 13,77</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 6,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 6,15</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 7,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 17,67</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 4,73</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 3,37</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 3,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 14,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,96%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-6,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; 24,73</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; 19,11</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,5; 11,18</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 48,67</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 27,14</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 22,5</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 27,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 67,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; 17,28</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 12,76</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 11,24</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 50,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
